--- a/testing_1/vidya.xlsx
+++ b/testing_1/vidya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\testing_git_tags\testing\testing_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A28BEB-F8B1-4B82-A006-AC4969D1534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACBA05D-98DF-4893-BC98-01E0840DAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{918E5C3F-6318-4A5C-8654-ECD092A40F7A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Programming</t>
+    <t>Coding</t>
   </si>
 </sst>
 </file>

--- a/testing_1/vidya.xlsx
+++ b/testing_1/vidya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\testing_git_tags\testing\testing_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACBA05D-98DF-4893-BC98-01E0840DAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94695771-2AAD-41A4-B4C7-DABB0A2F009E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{918E5C3F-6318-4A5C-8654-ECD092A40F7A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Python</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t>Fruit</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCBFC48-0F93-4EDF-BD48-7CA84A5AF4AF}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,6 +411,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
